--- a/refs/heads/main/StructureDefinition-Patient-pre-uv-ips.xlsx
+++ b/refs/heads/main/StructureDefinition-Patient-pre-uv-ips.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/refs/heads/main/StructureDefinition-Patient-pre-uv-ips.xlsx
+++ b/refs/heads/main/StructureDefinition-Patient-pre-uv-ips.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -287,7 +287,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -557,6 +557,10 @@
   </si>
   <si>
     <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1680,45 +1684,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="71.51171875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.93359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3241,13 +3245,13 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3298,7 +3302,7 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3330,7 +3334,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3359,7 +3363,7 @@
         <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>136</v>
@@ -3400,19 +3404,19 @@
         <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3444,7 +3448,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3470,16 +3474,16 @@
         <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -3504,13 +3508,13 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3528,7 +3532,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3543,7 +3547,7 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -3552,7 +3556,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3560,7 +3564,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3583,19 +3587,19 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -3644,7 +3648,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3659,7 +3663,7 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3668,7 +3672,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3676,11 +3680,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3699,16 +3703,16 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3758,7 +3762,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3773,7 +3777,7 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -3782,7 +3786,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3790,11 +3794,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3813,16 +3817,16 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3872,7 +3876,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3887,7 +3891,7 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
@@ -3896,7 +3900,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -3904,7 +3908,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3927,13 +3931,13 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3984,7 +3988,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3999,7 +4003,7 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4008,7 +4012,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4016,7 +4020,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4039,13 +4043,13 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4096,7 +4100,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4111,7 +4115,7 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
@@ -4120,7 +4124,7 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4128,7 +4132,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4151,17 +4155,17 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
@@ -4210,7 +4214,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4225,7 +4229,7 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
@@ -4234,7 +4238,7 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4242,7 +4246,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4265,19 +4269,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4326,7 +4330,7 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4341,16 +4345,16 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4358,7 +4362,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4384,16 +4388,16 @@
         <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4418,13 +4422,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4442,7 +4446,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4457,16 +4461,16 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4474,7 +4478,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4497,19 +4501,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4558,7 +4562,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4573,24 +4577,24 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4613,19 +4617,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4674,7 +4678,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4689,7 +4693,7 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>161</v>
@@ -4698,7 +4702,7 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4706,7 +4710,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4729,19 +4733,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -4790,7 +4794,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4802,19 +4806,19 @@
         <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4822,7 +4826,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4845,17 +4849,17 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
@@ -4880,13 +4884,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -4904,7 +4908,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4919,16 +4923,16 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -4936,7 +4940,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4959,19 +4963,19 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5020,7 +5024,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5035,7 +5039,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>161</v>
@@ -5044,7 +5048,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5052,7 +5056,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5075,19 +5079,19 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5136,7 +5140,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5151,7 +5155,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>161</v>
@@ -5160,7 +5164,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5168,7 +5172,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5191,19 +5195,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
@@ -5252,7 +5256,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5264,10 +5268,10 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>161</v>
@@ -5284,7 +5288,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5307,13 +5311,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5364,7 +5368,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5396,7 +5400,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5425,7 +5429,7 @@
         <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>136</v>
@@ -5478,7 +5482,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5510,11 +5514,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5536,10 +5540,10 @@
         <v>133</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>136</v>
@@ -5594,7 +5598,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5626,7 +5630,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5649,19 +5653,19 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -5686,11 +5690,11 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -5708,7 +5712,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5717,13 +5721,13 @@
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
@@ -5732,7 +5736,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5740,7 +5744,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5766,14 +5770,14 @@
         <v>164</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
@@ -5822,7 +5826,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5846,7 +5850,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5854,7 +5858,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5877,19 +5881,19 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -5938,7 +5942,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5953,7 +5957,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>161</v>
@@ -5962,7 +5966,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -5970,7 +5974,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5993,17 +5997,17 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6052,7 +6056,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6067,7 +6071,7 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>161</v>
@@ -6076,7 +6080,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6084,7 +6088,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6110,14 +6114,14 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6142,13 +6146,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6166,7 +6170,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6181,7 +6185,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>161</v>
@@ -6190,7 +6194,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6198,7 +6202,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6221,17 +6225,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6280,7 +6284,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6289,13 +6293,13 @@
         <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>161</v>
@@ -6304,7 +6308,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6312,7 +6316,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6335,13 +6339,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6392,7 +6396,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6407,7 +6411,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>161</v>
@@ -6424,7 +6428,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6447,19 +6451,19 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -6508,7 +6512,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6523,10 +6527,10 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -6540,7 +6544,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6563,13 +6567,13 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6620,7 +6624,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6652,7 +6656,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6681,7 +6685,7 @@
         <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>136</v>
@@ -6734,7 +6738,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6766,11 +6770,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6792,10 +6796,10 @@
         <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>136</v>
@@ -6850,7 +6854,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6882,7 +6886,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6905,19 +6909,19 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -6942,11 +6946,11 @@
         <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>81</v>
@@ -6964,7 +6968,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>88</v>
@@ -6979,16 +6983,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -6996,7 +7000,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7022,16 +7026,16 @@
         <v>154</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7080,7 +7084,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7095,16 +7099,16 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7112,11 +7116,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7135,16 +7139,16 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7194,7 +7198,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7209,7 +7213,7 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>161</v>
@@ -7218,7 +7222,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7226,7 +7230,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7249,19 +7253,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7310,7 +7314,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7325,10 +7329,10 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7342,7 +7346,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7365,19 +7369,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7426,7 +7430,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7441,7 +7445,7 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>161</v>
@@ -7458,7 +7462,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7481,13 +7485,13 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7538,7 +7542,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7570,7 +7574,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7599,7 +7603,7 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>136</v>
@@ -7652,7 +7656,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7684,11 +7688,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7710,10 +7714,10 @@
         <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>136</v>
@@ -7768,7 +7772,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7800,7 +7804,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7823,16 +7827,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7882,7 +7886,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>88</v>
@@ -7906,7 +7910,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -7914,7 +7918,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7940,10 +7944,10 @@
         <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7970,13 +7974,13 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -7994,7 +7998,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>88</v>
@@ -8009,7 +8013,7 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>161</v>
